--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2569829.48482406</v>
+        <v>-2570652.899923749</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15458645.73994568</v>
+        <v>15458645.73994569</v>
       </c>
     </row>
     <row r="11">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S8" t="n">
-        <v>11.94294668035388</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="H9" t="n">
         <v>11.94294668035388</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1288,23 +1288,23 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="G10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>305.1334033542745</v>
+        <v>305.1334033542744</v>
       </c>
       <c r="C11" t="n">
-        <v>293.1447203119562</v>
+        <v>293.1447203119561</v>
       </c>
       <c r="D11" t="n">
-        <v>284.1260243564842</v>
+        <v>284.1260243564841</v>
       </c>
       <c r="E11" t="n">
-        <v>305.8681619263897</v>
+        <v>305.8681619263896</v>
       </c>
       <c r="F11" t="n">
-        <v>325.0399780143669</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>142.4986648596364</v>
       </c>
       <c r="H11" t="n">
-        <v>239.2107011623956</v>
+        <v>239.2107011623955</v>
       </c>
       <c r="I11" t="n">
-        <v>66.12017415851115</v>
+        <v>66.12017415851109</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.56594410088928</v>
+        <v>88.56594410088921</v>
       </c>
       <c r="T11" t="n">
-        <v>134.8748230868717</v>
+        <v>134.8748230868716</v>
       </c>
       <c r="U11" t="n">
-        <v>122.0954229466248</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>293.2401383051571</v>
+        <v>293.240138305157</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>304.6367361013558</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.75011422897154</v>
+        <v>96.75011422897147</v>
       </c>
       <c r="C13" t="n">
-        <v>82.95010907437202</v>
+        <v>82.95010907437195</v>
       </c>
       <c r="D13" t="n">
-        <v>66.57147347195041</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.51922332772986</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.02815649136093</v>
+        <v>82.02815649136086</v>
       </c>
       <c r="H13" t="n">
-        <v>70.74035781437983</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.79357341598957</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>52.5940995334138</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>122.547744390183</v>
       </c>
       <c r="T13" t="n">
         <v>144.8832253714185</v>
       </c>
       <c r="U13" t="n">
-        <v>199.3359439534501</v>
+        <v>91.34431887881247</v>
       </c>
       <c r="V13" t="n">
-        <v>130.654080142519</v>
+        <v>173.158250628597</v>
       </c>
       <c r="W13" t="n">
-        <v>198.3251366992104</v>
+        <v>198.3251366992103</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.9702386950134</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.8451064510812</v>
+        <v>134.8451064510811</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.1334033542745</v>
+        <v>305.1334033542744</v>
       </c>
       <c r="C14" t="n">
-        <v>293.1447203119562</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>284.1260243564842</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>305.8681619263897</v>
+        <v>305.8681619263896</v>
       </c>
       <c r="F14" t="n">
-        <v>325.0399780143669</v>
+        <v>325.0399780143668</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>326.4544948093649</v>
       </c>
       <c r="H14" t="n">
         <v>239.2107011623955</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>66.12017415851108</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.56594410088928</v>
+        <v>88.56594410088923</v>
       </c>
       <c r="T14" t="n">
-        <v>134.8748230868717</v>
+        <v>134.8748230868716</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.1890197674022</v>
       </c>
       <c r="W14" t="n">
-        <v>46.49294406683813</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>293.2401383051571</v>
+        <v>293.240138305157</v>
       </c>
       <c r="Y14" t="n">
         <v>304.6367361013558</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.75011422897154</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95010907437202</v>
+        <v>82.95010907437195</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98614765591617</v>
+        <v>2.069664375045946</v>
       </c>
       <c r="G16" t="n">
-        <v>82.02815649136093</v>
+        <v>82.02815649136086</v>
       </c>
       <c r="H16" t="n">
-        <v>1.164071193042402</v>
+        <v>70.74035781437978</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.79357341598951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.59409953341381</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>122.547744390183</v>
       </c>
       <c r="T16" t="n">
-        <v>144.8832253714185</v>
+        <v>144.8832253714184</v>
       </c>
       <c r="U16" t="n">
-        <v>199.3359439534501</v>
+        <v>199.33594395345</v>
       </c>
       <c r="V16" t="n">
-        <v>173.1582506285971</v>
+        <v>173.158250628597</v>
       </c>
       <c r="W16" t="n">
-        <v>198.3251366992104</v>
+        <v>198.3251366992103</v>
       </c>
       <c r="X16" t="n">
-        <v>143.9702386950135</v>
+        <v>143.9702386950134</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.8451064510812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>257.1783167039522</v>
       </c>
       <c r="H17" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.2897659954765</v>
+        <v>19.28976599547651</v>
       </c>
       <c r="T17" t="n">
         <v>65.5986449814589</v>
@@ -1907,7 +1907,7 @@
         <v>204.6637019669977</v>
       </c>
       <c r="X17" t="n">
-        <v>223.9639601997448</v>
+        <v>223.9639601997443</v>
       </c>
       <c r="Y17" t="n">
         <v>235.3605579959431</v>
@@ -1941,7 +1941,7 @@
         <v>96.25786926107833</v>
       </c>
       <c r="I18" t="n">
-        <v>58.14224742556293</v>
+        <v>58.14224742556294</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.95358800164027</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S18" t="n">
         <v>146.1160054094308</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.11460506389223</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464179708967058</v>
+        <v>1.464179708967059</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.27156628477033</v>
+        <v>83.38617134866226</v>
       </c>
       <c r="T19" t="n">
         <v>75.60704726600574</v>
@@ -2096,7 +2096,7 @@
         <v>257.1783167039522</v>
       </c>
       <c r="H20" t="n">
-        <v>169.9345230569828</v>
+        <v>169.9345230569827</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>96.25786926107833</v>
       </c>
       <c r="I21" t="n">
-        <v>58.14224742556294</v>
+        <v>58.14224742556293</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.95358800164028</v>
+        <v>41.95358800164027</v>
       </c>
       <c r="S21" t="n">
         <v>146.1160054094308</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.75197838594815</v>
+        <v>42.86658344984015</v>
       </c>
       <c r="H22" t="n">
-        <v>1.464179708967059</v>
+        <v>1.464179708967058</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>83.38617134866249</v>
+        <v>53.27156628477033</v>
       </c>
       <c r="T22" t="n">
         <v>75.60704726600574</v>
@@ -2491,7 +2491,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H25" t="n">
-        <v>31.57878477285928</v>
+        <v>1.464179708967059</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.27156628477033</v>
+        <v>83.38617134866226</v>
       </c>
       <c r="T25" t="n">
         <v>75.60704726600574</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.1976629109755</v>
+        <v>287.1976629109754</v>
       </c>
       <c r="C26" t="n">
-        <v>275.2089798686573</v>
+        <v>275.2089798686571</v>
       </c>
       <c r="D26" t="n">
-        <v>266.1902839131852</v>
+        <v>266.1902839131851</v>
       </c>
       <c r="E26" t="n">
-        <v>287.9324214830907</v>
+        <v>287.9324214830906</v>
       </c>
       <c r="F26" t="n">
-        <v>307.1042375710679</v>
+        <v>307.1042375710678</v>
       </c>
       <c r="G26" t="n">
-        <v>308.518754366066</v>
+        <v>308.5187543660659</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2749607190966</v>
+        <v>221.2749607190965</v>
       </c>
       <c r="I26" t="n">
-        <v>48.18443371521215</v>
+        <v>48.18443371521211</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.6302036575903</v>
+        <v>70.63020365759023</v>
       </c>
       <c r="T26" t="n">
-        <v>116.9390826435727</v>
+        <v>116.9390826435726</v>
       </c>
       <c r="U26" t="n">
-        <v>149.3895416230885</v>
+        <v>149.3895416230884</v>
       </c>
       <c r="V26" t="n">
-        <v>230.7040401511546</v>
+        <v>230.7040401511545</v>
       </c>
       <c r="W26" t="n">
-        <v>256.0041396291115</v>
+        <v>256.0041396291114</v>
       </c>
       <c r="X26" t="n">
-        <v>275.3043978618581</v>
+        <v>275.304397861858</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.7009956580569</v>
+        <v>286.7009956580568</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.81437378567256</v>
+        <v>78.81437378567249</v>
       </c>
       <c r="C28" t="n">
-        <v>65.01436863107304</v>
+        <v>65.01436863107297</v>
       </c>
       <c r="D28" t="n">
-        <v>48.63573302865143</v>
+        <v>48.63573302865136</v>
       </c>
       <c r="E28" t="n">
-        <v>47.58348288443088</v>
+        <v>47.58348288443081</v>
       </c>
       <c r="F28" t="n">
-        <v>48.05040721261719</v>
+        <v>48.05040721261712</v>
       </c>
       <c r="G28" t="n">
-        <v>64.09241604806195</v>
+        <v>64.09241604806188</v>
       </c>
       <c r="H28" t="n">
-        <v>52.80461737108086</v>
+        <v>52.80461737108079</v>
       </c>
       <c r="I28" t="n">
-        <v>32.85783297269059</v>
+        <v>32.85783297269052</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65835909011489</v>
+        <v>34.65835909011483</v>
       </c>
       <c r="S28" t="n">
         <v>104.6120039468841</v>
@@ -2767,19 +2767,19 @@
         <v>126.9474849281195</v>
       </c>
       <c r="U28" t="n">
-        <v>181.4002035101511</v>
+        <v>181.400203510151</v>
       </c>
       <c r="V28" t="n">
         <v>155.2225101852981</v>
       </c>
       <c r="W28" t="n">
-        <v>180.3893962559114</v>
+        <v>180.3893962559113</v>
       </c>
       <c r="X28" t="n">
         <v>126.0344982517145</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.9093660077822</v>
+        <v>116.9093660077821</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.2749607190965</v>
       </c>
       <c r="I29" t="n">
-        <v>48.18443371521208</v>
+        <v>48.18443371521211</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>218.1850815539554</v>
       </c>
       <c r="I32" t="n">
-        <v>45.09455455007095</v>
+        <v>45.09455455007098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>49.71473820593966</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76795380754939</v>
+        <v>29.7679538075494</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.56847992497369</v>
+        <v>31.5684799249737</v>
       </c>
       <c r="S34" t="n">
         <v>101.5221247817429</v>
@@ -3439,7 +3439,7 @@
         <v>12.75197838594824</v>
       </c>
       <c r="H37" t="n">
-        <v>31.5787847728583</v>
+        <v>1.464179708967145</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>53.27156628477042</v>
       </c>
       <c r="T37" t="n">
-        <v>75.60704726600582</v>
+        <v>105.7216523298968</v>
       </c>
       <c r="U37" t="n">
         <v>130.0597658480374</v>
@@ -3676,13 +3676,13 @@
         <v>12.75197838594818</v>
       </c>
       <c r="H40" t="n">
-        <v>1.464179708967087</v>
+        <v>31.57878477285864</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.44757697698205</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.66702808690971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C41" t="n">
         <v>223.8685422065434</v>
       </c>
       <c r="D41" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E41" t="n">
         <v>236.5919838209769</v>
       </c>
       <c r="F41" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G41" t="n">
         <v>257.1783167039522</v>
       </c>
       <c r="H41" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.28976599547644</v>
+        <v>19.2897659954765</v>
       </c>
       <c r="T41" t="n">
-        <v>65.59864498145885</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U41" t="n">
-        <v>98.04910396097463</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V41" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W41" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X41" t="n">
         <v>223.9639601997443</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.4739361235587</v>
+        <v>57.58854118745055</v>
       </c>
       <c r="C43" t="n">
-        <v>13.67393096895918</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.7519783859481</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H43" t="n">
-        <v>1.464179708967002</v>
+        <v>1.464179708967059</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>83.38617134866304</v>
+        <v>53.27156628477033</v>
       </c>
       <c r="T43" t="n">
-        <v>75.60704726600568</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U43" t="n">
         <v>130.0597658480373</v>
@@ -3961,10 +3961,10 @@
         <v>129.0489585937976</v>
       </c>
       <c r="X43" t="n">
-        <v>74.69406058960067</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.56892834566835</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="44">
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.28976599547651</v>
+        <v>19.2897659954765</v>
       </c>
       <c r="T44" t="n">
         <v>65.5986449814589</v>
@@ -4150,7 +4150,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H46" t="n">
-        <v>1.464179708967059</v>
+        <v>31.57878477285885</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>83.38617134866249</v>
+        <v>53.27156628477033</v>
       </c>
       <c r="T46" t="n">
         <v>75.60704726600574</v>
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="C8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="D8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="E8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="F8" t="n">
+        <v>25.08260074524424</v>
+      </c>
+      <c r="G8" t="n">
         <v>13.01901823983628</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.9554357344283108</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I8" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L8" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M8" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N8" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O8" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
@@ -4829,25 +4829,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="T8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="U8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="V8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="W8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="X8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.12980488926189</v>
+        <v>35.19338739466986</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F9" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="G9" t="n">
         <v>25.08260074524424</v>
@@ -4884,49 +4884,49 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M9" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N9" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O9" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.64462171059961</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23.64462171059961</v>
+      </c>
+      <c r="F10" t="n">
         <v>13.01901823983628</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9554357344283108</v>
       </c>
       <c r="G10" t="n">
         <v>0.9554357344283108</v>
@@ -4963,16 +4963,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L10" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="L10" t="n">
-        <v>24.60247016152901</v>
-      </c>
       <c r="M10" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O10" t="n">
         <v>35.94826950786519</v>
@@ -4981,31 +4981,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X10" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1579.455735483385</v>
+        <v>1395.070570680626</v>
       </c>
       <c r="C11" t="n">
-        <v>1283.3499573905</v>
+        <v>1098.964792587741</v>
       </c>
       <c r="D11" t="n">
-        <v>996.3539731920312</v>
+        <v>811.9688083892721</v>
       </c>
       <c r="E11" t="n">
-        <v>687.3962338724456</v>
+        <v>503.0110690696872</v>
       </c>
       <c r="F11" t="n">
-        <v>359.0730237569233</v>
+        <v>503.0110690696872</v>
       </c>
       <c r="G11" t="n">
-        <v>359.0730237569233</v>
+        <v>359.0730237569232</v>
       </c>
       <c r="H11" t="n">
-        <v>117.4460528858167</v>
+        <v>117.4460528858166</v>
       </c>
       <c r="I11" t="n">
         <v>50.65799818024986</v>
@@ -5054,10 +5054,10 @@
         <v>1854.025990019579</v>
       </c>
       <c r="O11" t="n">
-        <v>2245.560262052935</v>
+        <v>2245.560262052934</v>
       </c>
       <c r="P11" t="n">
-        <v>2532.899909012493</v>
+        <v>2383.008565045143</v>
       </c>
       <c r="Q11" t="n">
         <v>2532.899909012493</v>
@@ -5072,19 +5072,19 @@
         <v>2307.202164378391</v>
       </c>
       <c r="U11" t="n">
-        <v>2183.873454331296</v>
+        <v>2307.202164378391</v>
       </c>
       <c r="V11" t="n">
-        <v>2183.873454331296</v>
+        <v>2307.202164378391</v>
       </c>
       <c r="W11" t="n">
-        <v>2183.873454331296</v>
+        <v>2307.202164378391</v>
       </c>
       <c r="X11" t="n">
-        <v>1887.671294427097</v>
+        <v>2011.000004474192</v>
       </c>
       <c r="Y11" t="n">
-        <v>1887.671294427097</v>
+        <v>1703.286129624337</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3299698356712</v>
+        <v>917.3299698356717</v>
       </c>
       <c r="C12" t="n">
-        <v>755.6262970766261</v>
+        <v>755.6262970766265</v>
       </c>
       <c r="D12" t="n">
-        <v>616.787660066838</v>
+        <v>616.7876600668385</v>
       </c>
       <c r="E12" t="n">
-        <v>469.7596501237092</v>
+        <v>469.7596501237097</v>
       </c>
       <c r="F12" t="n">
-        <v>335.0658520735836</v>
+        <v>335.0658520735841</v>
       </c>
       <c r="G12" t="n">
         <v>206.6177120051398</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3875410343535</v>
+        <v>109.3875410343538</v>
       </c>
       <c r="I12" t="n">
         <v>50.65799818024986</v>
@@ -5148,7 +5148,7 @@
         <v>2342.930622738684</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.375566078797</v>
+        <v>2155.375566078798</v>
       </c>
       <c r="U12" t="n">
         <v>1936.899218407915</v>
@@ -5160,10 +5160,10 @@
         <v>1467.187727089559</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.270738967353</v>
+        <v>1269.270738967354</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.749412616932</v>
+        <v>1076.749412616933</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>473.4892038325556</v>
+        <v>217.3027108729093</v>
       </c>
       <c r="C13" t="n">
-        <v>389.7012148685435</v>
+        <v>133.5147219088972</v>
       </c>
       <c r="D13" t="n">
-        <v>322.4573022706138</v>
+        <v>133.5147219088972</v>
       </c>
       <c r="E13" t="n">
-        <v>256.2762686062401</v>
+        <v>133.5147219088972</v>
       </c>
       <c r="F13" t="n">
-        <v>256.2762686062401</v>
+        <v>133.5147219088972</v>
       </c>
       <c r="G13" t="n">
-        <v>173.4195448775927</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="H13" t="n">
-        <v>101.9646379943808</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="I13" t="n">
         <v>50.65799818024986</v>
       </c>
       <c r="J13" t="n">
-        <v>92.2028455591731</v>
+        <v>92.20284555917317</v>
       </c>
       <c r="K13" t="n">
-        <v>236.6914878212667</v>
+        <v>236.6914878212668</v>
       </c>
       <c r="L13" t="n">
-        <v>455.6678532729346</v>
+        <v>455.6678532729347</v>
       </c>
       <c r="M13" t="n">
-        <v>693.8924292330552</v>
+        <v>693.8924292330554</v>
       </c>
       <c r="N13" t="n">
-        <v>931.6872003761921</v>
+        <v>931.6872003761923</v>
       </c>
       <c r="O13" t="n">
-        <v>1146.832171474949</v>
+        <v>1146.83217147495</v>
       </c>
       <c r="P13" t="n">
         <v>1321.782494086456</v>
       </c>
       <c r="Q13" t="n">
-        <v>1387.422140041294</v>
+        <v>1387.422140041295</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.422140041294</v>
+        <v>1334.29678697724</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.422140041294</v>
+        <v>1210.511186583116</v>
       </c>
       <c r="T13" t="n">
-        <v>1241.075447746932</v>
+        <v>1064.164494288754</v>
       </c>
       <c r="U13" t="n">
-        <v>1039.726009410114</v>
+        <v>971.8975055222763</v>
       </c>
       <c r="V13" t="n">
-        <v>907.7521910843366</v>
+        <v>796.9901816550066</v>
       </c>
       <c r="W13" t="n">
-        <v>707.4237701760433</v>
+        <v>596.6617607467133</v>
       </c>
       <c r="X13" t="n">
-        <v>707.4237701760433</v>
+        <v>451.2372772163968</v>
       </c>
       <c r="Y13" t="n">
-        <v>571.2165919426279</v>
+        <v>315.0300989829815</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1516.026041591322</v>
+        <v>1329.464348964489</v>
       </c>
       <c r="C14" t="n">
-        <v>1219.920263498436</v>
+        <v>1329.464348964489</v>
       </c>
       <c r="D14" t="n">
-        <v>932.9242792999677</v>
+        <v>1329.464348964489</v>
       </c>
       <c r="E14" t="n">
-        <v>623.9665399803821</v>
+        <v>1020.506609644903</v>
       </c>
       <c r="F14" t="n">
-        <v>295.64332986486</v>
+        <v>692.1833995293812</v>
       </c>
       <c r="G14" t="n">
-        <v>295.64332986486</v>
+        <v>362.4313845704268</v>
       </c>
       <c r="H14" t="n">
-        <v>54.01635899375343</v>
+        <v>120.8044136993202</v>
       </c>
       <c r="I14" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J14" t="n">
-        <v>169.6029711321573</v>
+        <v>169.6029711321569</v>
       </c>
       <c r="K14" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665061</v>
       </c>
       <c r="L14" t="n">
-        <v>904.0001174013314</v>
+        <v>904.000117401331</v>
       </c>
       <c r="M14" t="n">
         <v>1387.41655662286</v>
       </c>
       <c r="N14" t="n">
-        <v>1857.384350833083</v>
+        <v>1857.384350833082</v>
       </c>
       <c r="O14" t="n">
         <v>2248.918622866438</v>
       </c>
       <c r="P14" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q14" t="n">
         <v>2700.817949687671</v>
@@ -5312,16 +5312,16 @@
         <v>2475.120205053569</v>
       </c>
       <c r="V14" t="n">
-        <v>2475.120205053569</v>
+        <v>2241.595942662253</v>
       </c>
       <c r="W14" t="n">
-        <v>2428.157635289087</v>
+        <v>2241.595942662253</v>
       </c>
       <c r="X14" t="n">
-        <v>2131.955475384888</v>
+        <v>1945.393782758054</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.241600535033</v>
+        <v>1637.6799079082</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I15" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J15" t="n">
-        <v>54.01635899375343</v>
+        <v>140.2312601394511</v>
       </c>
       <c r="K15" t="n">
-        <v>161.2417161144369</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L15" t="n">
-        <v>586.7259333701727</v>
+        <v>839.5770945564518</v>
       </c>
       <c r="M15" t="n">
-        <v>1141.382461012028</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N15" t="n">
-        <v>1724.113999515822</v>
+        <v>1531.266848526715</v>
       </c>
       <c r="O15" t="n">
-        <v>2181.691279832922</v>
+        <v>1988.844128843815</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.258269825996</v>
+        <v>2343.411118836889</v>
       </c>
       <c r="Q15" t="n">
         <v>2536.258269825996</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.4895755742498</v>
+        <v>345.5131884595597</v>
       </c>
       <c r="C16" t="n">
-        <v>204.7015866102377</v>
+        <v>261.7251994955476</v>
       </c>
       <c r="D16" t="n">
-        <v>204.7015866102377</v>
+        <v>261.7251994955476</v>
       </c>
       <c r="E16" t="n">
-        <v>204.7015866102377</v>
+        <v>261.7251994955476</v>
       </c>
       <c r="F16" t="n">
-        <v>138.0489122103223</v>
+        <v>259.6346294197436</v>
       </c>
       <c r="G16" t="n">
-        <v>55.19218848167505</v>
+        <v>176.7779056910961</v>
       </c>
       <c r="H16" t="n">
-        <v>54.01635899375343</v>
+        <v>105.3229988078842</v>
       </c>
       <c r="I16" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J16" t="n">
-        <v>95.56120637267668</v>
+        <v>95.56120637267662</v>
       </c>
       <c r="K16" t="n">
-        <v>240.0498486347702</v>
+        <v>240.0498486347703</v>
       </c>
       <c r="L16" t="n">
-        <v>459.0262140864381</v>
+        <v>459.0262140864382</v>
       </c>
       <c r="M16" t="n">
-        <v>697.2507900465587</v>
+        <v>697.2507900465588</v>
       </c>
       <c r="N16" t="n">
-        <v>935.0455611896956</v>
+        <v>935.0455611896957</v>
       </c>
       <c r="O16" t="n">
         <v>1150.190532288453</v>
@@ -5458,28 +5458,28 @@
         <v>1390.780500854798</v>
       </c>
       <c r="R16" t="n">
-        <v>1390.780500854798</v>
+        <v>1337.655147790744</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.780500854798</v>
+        <v>1213.86954739662</v>
       </c>
       <c r="T16" t="n">
-        <v>1244.433808560436</v>
+        <v>1067.522855102258</v>
       </c>
       <c r="U16" t="n">
-        <v>1043.084370223617</v>
+        <v>866.1734167654395</v>
       </c>
       <c r="V16" t="n">
-        <v>868.1770463563474</v>
+        <v>691.2660928981697</v>
       </c>
       <c r="W16" t="n">
-        <v>667.8486254480541</v>
+        <v>490.9376719898764</v>
       </c>
       <c r="X16" t="n">
-        <v>522.4241419177374</v>
+        <v>345.5131884595597</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.216963684322</v>
+        <v>345.5131884595597</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>1199.792591056316</v>
       </c>
       <c r="D17" t="n">
-        <v>982.7725443380625</v>
+        <v>982.7725443380626</v>
       </c>
       <c r="E17" t="n">
-        <v>743.7907424986919</v>
+        <v>743.790742498692</v>
       </c>
       <c r="F17" t="n">
-        <v>485.4434698633847</v>
+        <v>485.4434698633849</v>
       </c>
       <c r="G17" t="n">
         <v>225.6673923846451</v>
       </c>
       <c r="H17" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I17" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J17" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321573</v>
       </c>
       <c r="K17" t="n">
-        <v>475.0705578665062</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L17" t="n">
-        <v>904.0001174013312</v>
+        <v>904.0001174013313</v>
       </c>
       <c r="M17" t="n">
         <v>1387.41655662286</v>
@@ -5531,7 +5531,7 @@
         <v>2248.918622866438</v>
       </c>
       <c r="P17" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q17" t="n">
         <v>2700.817949687671</v>
@@ -5540,7 +5540,7 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S17" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T17" t="n">
         <v>2615.072080013999</v>
@@ -5552,7 +5552,7 @@
         <v>2334.857225013984</v>
       </c>
       <c r="W17" t="n">
-        <v>2128.126212926108</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X17" t="n">
         <v>1901.899990502123</v>
@@ -5589,19 +5589,19 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I18" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J18" t="n">
         <v>140.2312601394511</v>
       </c>
       <c r="K18" t="n">
-        <v>414.0928773007161</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L18" t="n">
         <v>839.5770945564518</v>
       </c>
       <c r="M18" t="n">
-        <v>948.5353100229208</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N18" t="n">
         <v>1531.266848526715</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.6069591228107</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C19" t="n">
-        <v>98.79490763901347</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D19" t="n">
-        <v>98.79490763901347</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E19" t="n">
-        <v>68.37611464518294</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F19" t="n">
-        <v>68.37611464518294</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G19" t="n">
-        <v>55.49532839675046</v>
+        <v>55.49532839675045</v>
       </c>
       <c r="H19" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I19" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J19" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="K19" t="n">
-        <v>114.3849974949682</v>
+        <v>114.3849974949681</v>
       </c>
       <c r="L19" t="n">
         <v>249.2413591857572</v>
@@ -5683,40 +5683,40 @@
         <v>403.3459313849989</v>
       </c>
       <c r="N19" t="n">
-        <v>557.020698767257</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O19" t="n">
-        <v>688.0456661051354</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P19" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q19" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R19" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S19" t="n">
-        <v>725.0663220418541</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T19" t="n">
-        <v>648.6955672277069</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U19" t="n">
-        <v>517.3220663711035</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V19" t="n">
-        <v>412.3906799840486</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0381965559702</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X19" t="n">
-        <v>206.5896505058685</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.358409752668</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1199.792591056316</v>
       </c>
       <c r="D20" t="n">
-        <v>982.7725443380623</v>
+        <v>982.7725443380625</v>
       </c>
       <c r="E20" t="n">
-        <v>743.7907424986917</v>
+        <v>743.7907424986919</v>
       </c>
       <c r="F20" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633847</v>
       </c>
       <c r="G20" t="n">
-        <v>225.6673923846452</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H20" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I20" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J20" t="n">
-        <v>169.6029711321573</v>
+        <v>169.6029711321571</v>
       </c>
       <c r="K20" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665062</v>
       </c>
       <c r="L20" t="n">
-        <v>904.0001174013314</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M20" t="n">
         <v>1387.41655662286</v>
@@ -5768,7 +5768,7 @@
         <v>2248.918622866438</v>
       </c>
       <c r="P20" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q20" t="n">
         <v>2700.817949687671</v>
@@ -5777,7 +5777,7 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S20" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T20" t="n">
         <v>2615.072080013999</v>
@@ -5826,13 +5826,13 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I21" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J21" t="n">
         <v>140.2312601394511</v>
       </c>
       <c r="K21" t="n">
-        <v>414.0928773007159</v>
+        <v>414.0928773007161</v>
       </c>
       <c r="L21" t="n">
         <v>839.5770945564518</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.18816612898016</v>
+        <v>2034.548923854718</v>
       </c>
       <c r="C22" t="n">
-        <v>68.37611464518294</v>
+        <v>2020.736872370921</v>
       </c>
       <c r="D22" t="n">
-        <v>68.37611464518294</v>
+        <v>2020.736872370921</v>
       </c>
       <c r="E22" t="n">
-        <v>68.37611464518294</v>
+        <v>2020.736872370921</v>
       </c>
       <c r="F22" t="n">
-        <v>68.37611464518294</v>
+        <v>2020.736872370921</v>
       </c>
       <c r="G22" t="n">
-        <v>55.49532839675046</v>
+        <v>1977.437293128658</v>
       </c>
       <c r="H22" t="n">
-        <v>54.01635899375343</v>
+        <v>1975.958323725661</v>
       </c>
       <c r="I22" t="n">
-        <v>54.01635899375343</v>
+        <v>1975.958323725661</v>
       </c>
       <c r="J22" t="n">
-        <v>54.01635899375343</v>
+        <v>1975.958323725661</v>
       </c>
       <c r="K22" t="n">
-        <v>114.3849974949682</v>
+        <v>2036.326962226876</v>
       </c>
       <c r="L22" t="n">
-        <v>249.2413591857572</v>
+        <v>2171.183323917665</v>
       </c>
       <c r="M22" t="n">
-        <v>403.3459313849989</v>
+        <v>2325.287896116907</v>
       </c>
       <c r="N22" t="n">
-        <v>557.020698767257</v>
+        <v>2478.962663499165</v>
       </c>
       <c r="O22" t="n">
-        <v>688.0456661051354</v>
+        <v>2609.987630837043</v>
       </c>
       <c r="P22" t="n">
-        <v>778.8759849557634</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="Q22" t="n">
-        <v>778.8759849557634</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R22" t="n">
-        <v>778.8759849557634</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="S22" t="n">
-        <v>694.6475290480236</v>
+        <v>2647.008286773761</v>
       </c>
       <c r="T22" t="n">
-        <v>618.2767742338764</v>
+        <v>2570.637531959614</v>
       </c>
       <c r="U22" t="n">
-        <v>486.903273377273</v>
+        <v>2439.264031103011</v>
       </c>
       <c r="V22" t="n">
-        <v>381.9718869902181</v>
+        <v>2334.332644715956</v>
       </c>
       <c r="W22" t="n">
-        <v>251.6194035621397</v>
+        <v>2203.980161287878</v>
       </c>
       <c r="X22" t="n">
-        <v>176.1708575120379</v>
+        <v>2128.531615237776</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.9396167588375</v>
+        <v>2062.300374484576</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>485.4434698633845</v>
       </c>
       <c r="G23" t="n">
-        <v>225.6673923846452</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H23" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I23" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J23" t="n">
         <v>169.6029711321573</v>
       </c>
       <c r="K23" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L23" t="n">
-        <v>904.0001174013314</v>
+        <v>904.0001174013313</v>
       </c>
       <c r="M23" t="n">
         <v>1387.41655662286</v>
@@ -6005,7 +6005,7 @@
         <v>2248.918622866438</v>
       </c>
       <c r="P23" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q23" t="n">
         <v>2700.817949687671</v>
@@ -6063,7 +6063,7 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I24" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J24" t="n">
         <v>140.2312601394511</v>
@@ -6075,7 +6075,7 @@
         <v>839.5770945564518</v>
       </c>
       <c r="M24" t="n">
-        <v>948.5353100229208</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N24" t="n">
         <v>1531.266848526715</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.6069591228107</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C25" t="n">
-        <v>98.79490763901347</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D25" t="n">
-        <v>98.79490763901347</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E25" t="n">
-        <v>98.79490763901347</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F25" t="n">
-        <v>98.79490763901347</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G25" t="n">
-        <v>85.91412139058099</v>
+        <v>55.49532839675045</v>
       </c>
       <c r="H25" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I25" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J25" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="K25" t="n">
-        <v>114.3849974949682</v>
+        <v>114.3849974949681</v>
       </c>
       <c r="L25" t="n">
         <v>249.2413591857572</v>
@@ -6157,40 +6157,40 @@
         <v>403.3459313849989</v>
       </c>
       <c r="N25" t="n">
-        <v>557.020698767257</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O25" t="n">
-        <v>688.0456661051354</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P25" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q25" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R25" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S25" t="n">
-        <v>725.0663220418541</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T25" t="n">
-        <v>648.6955672277069</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U25" t="n">
-        <v>517.3220663711035</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V25" t="n">
-        <v>412.3906799840486</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0381965559702</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X25" t="n">
-        <v>206.5896505058685</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.358409752668</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.557898288069</v>
+        <v>1801.557898288068</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.56902973387</v>
+        <v>1523.569029733869</v>
       </c>
       <c r="D26" t="n">
-        <v>1254.689955074087</v>
+        <v>1254.689955074086</v>
       </c>
       <c r="E26" t="n">
-        <v>963.8491252931871</v>
+        <v>963.8491252931865</v>
       </c>
       <c r="F26" t="n">
-        <v>653.6428247163508</v>
+        <v>653.6428247163503</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0077192960815</v>
+        <v>342.0077192960816</v>
       </c>
       <c r="H26" t="n">
-        <v>118.4976579636607</v>
+        <v>118.4976579636606</v>
       </c>
       <c r="I26" t="n">
-        <v>69.82651279677972</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J26" t="n">
-        <v>287.2895117349284</v>
+        <v>287.2895117349285</v>
       </c>
       <c r="K26" t="n">
-        <v>694.6334852690223</v>
+        <v>609.0179860740312</v>
       </c>
       <c r="L26" t="n">
-        <v>1225.439431603592</v>
+        <v>1139.823932408601</v>
       </c>
       <c r="M26" t="n">
-        <v>1810.732257624866</v>
+        <v>1725.116758429875</v>
       </c>
       <c r="N26" t="n">
-        <v>2296.960939439844</v>
+        <v>2296.960939439842</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.371598272944</v>
+        <v>2790.371598272942</v>
       </c>
       <c r="P26" t="n">
-        <v>3194.255967926572</v>
+        <v>3194.255967926571</v>
       </c>
       <c r="Q26" t="n">
-        <v>3446.023698693666</v>
+        <v>3446.023698693665</v>
       </c>
       <c r="R26" t="n">
-        <v>3491.325639838986</v>
+        <v>3491.325639838985</v>
       </c>
       <c r="S26" t="n">
-        <v>3419.981999780814</v>
+        <v>3419.981999780813</v>
       </c>
       <c r="T26" t="n">
-        <v>3301.861714282256</v>
+        <v>3301.861714282255</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.963187390248</v>
+        <v>3150.963187390247</v>
       </c>
       <c r="V26" t="n">
         <v>2917.928803399182</v>
       </c>
       <c r="W26" t="n">
-        <v>2659.338763369777</v>
+        <v>2659.338763369776</v>
       </c>
       <c r="X26" t="n">
         <v>2381.253513004263</v>
       </c>
       <c r="Y26" t="n">
-        <v>2091.656547693095</v>
+        <v>2091.656547693094</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>128.5560556508837</v>
       </c>
       <c r="I27" t="n">
-        <v>69.82651279677972</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J27" t="n">
         <v>156.0414139424774</v>
@@ -6315,7 +6315,7 @@
         <v>1410.043776001333</v>
       </c>
       <c r="N27" t="n">
-        <v>1992.775314505128</v>
+        <v>1547.077002329742</v>
       </c>
       <c r="O27" t="n">
         <v>2004.654282646842</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.4920260781999</v>
+        <v>432.4920260781993</v>
       </c>
       <c r="C28" t="n">
-        <v>366.8209466528736</v>
+        <v>366.8209466528731</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6939435936297</v>
+        <v>317.6939435936293</v>
       </c>
       <c r="E28" t="n">
-        <v>269.629819467942</v>
+        <v>269.6298194679416</v>
       </c>
       <c r="F28" t="n">
-        <v>221.0940546067125</v>
+        <v>221.0940546067122</v>
       </c>
       <c r="G28" t="n">
-        <v>156.3542404167509</v>
+        <v>156.3542404167507</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0162430722248</v>
+        <v>103.0162430722247</v>
       </c>
       <c r="I28" t="n">
-        <v>69.82651279677972</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J28" t="n">
         <v>129.127743214569</v>
       </c>
       <c r="K28" t="n">
-        <v>291.3727685155285</v>
+        <v>291.3727685155286</v>
       </c>
       <c r="L28" t="n">
-        <v>528.1055170060624</v>
+        <v>528.1055170060625</v>
       </c>
       <c r="M28" t="n">
-        <v>784.0864760050511</v>
+        <v>784.0864760050492</v>
       </c>
       <c r="N28" t="n">
-        <v>1039.637630187054</v>
+        <v>1039.637630187052</v>
       </c>
       <c r="O28" t="n">
-        <v>1272.538984324677</v>
+        <v>1272.538984324676</v>
       </c>
       <c r="P28" t="n">
-        <v>1465.24568997505</v>
+        <v>1465.245689975048</v>
       </c>
       <c r="Q28" t="n">
-        <v>1548.641718968754</v>
+        <v>1548.641718968753</v>
       </c>
       <c r="R28" t="n">
-        <v>1513.633275443386</v>
+        <v>1513.633275443384</v>
       </c>
       <c r="S28" t="n">
-        <v>1407.964584587947</v>
+        <v>1407.964584587946</v>
       </c>
       <c r="T28" t="n">
-        <v>1279.734801832271</v>
+        <v>1279.73480183227</v>
       </c>
       <c r="U28" t="n">
-        <v>1096.502273034138</v>
+        <v>1096.502273034137</v>
       </c>
       <c r="V28" t="n">
-        <v>939.7118587055542</v>
+        <v>939.7118587055534</v>
       </c>
       <c r="W28" t="n">
-        <v>757.5003473359467</v>
+        <v>757.5003473359459</v>
       </c>
       <c r="X28" t="n">
-        <v>630.1927733443158</v>
+        <v>630.1927733443151</v>
       </c>
       <c r="Y28" t="n">
-        <v>512.1025046495863</v>
+        <v>512.1025046495856</v>
       </c>
     </row>
     <row r="29">
@@ -6473,13 +6473,13 @@
         <v>1810.732257624866</v>
       </c>
       <c r="N29" t="n">
-        <v>2382.576438634834</v>
+        <v>2296.960939439842</v>
       </c>
       <c r="O29" t="n">
         <v>2790.371598272942</v>
       </c>
       <c r="P29" t="n">
-        <v>3194.25596792657</v>
+        <v>3194.255967926571</v>
       </c>
       <c r="Q29" t="n">
         <v>3446.023698693665</v>
@@ -6488,7 +6488,7 @@
         <v>3491.325639838985</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.981999780813</v>
+        <v>3419.981999780814</v>
       </c>
       <c r="T29" t="n">
         <v>3301.861714282255</v>
@@ -6540,25 +6540,25 @@
         <v>69.8265127967797</v>
       </c>
       <c r="J30" t="n">
-        <v>69.8265127967797</v>
+        <v>156.0414139424774</v>
       </c>
       <c r="K30" t="n">
-        <v>177.0518699174633</v>
+        <v>429.9030311037423</v>
       </c>
       <c r="L30" t="n">
-        <v>602.5360871731991</v>
+        <v>855.387248359478</v>
       </c>
       <c r="M30" t="n">
-        <v>1157.192614815054</v>
+        <v>1410.043776001333</v>
       </c>
       <c r="N30" t="n">
-        <v>1739.924153318849</v>
+        <v>1547.077002329742</v>
       </c>
       <c r="O30" t="n">
-        <v>2197.501433635949</v>
+        <v>2004.654282646842</v>
       </c>
       <c r="P30" t="n">
-        <v>2552.068423629023</v>
+        <v>2359.221272639916</v>
       </c>
       <c r="Q30" t="n">
         <v>2552.068423629023</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4920260781994</v>
+        <v>432.4920260781992</v>
       </c>
       <c r="C31" t="n">
-        <v>366.8209466528732</v>
+        <v>366.820946652873</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6939435936294</v>
+        <v>317.6939435936292</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6298194679417</v>
+        <v>269.6298194679415</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0940546067123</v>
+        <v>221.0940546067121</v>
       </c>
       <c r="G31" t="n">
-        <v>156.3542404167508</v>
+        <v>156.3542404167506</v>
       </c>
       <c r="H31" t="n">
         <v>103.0162430722247</v>
@@ -6625,46 +6625,46 @@
         <v>291.3727685155286</v>
       </c>
       <c r="L31" t="n">
-        <v>528.1055170060631</v>
+        <v>528.1055170060625</v>
       </c>
       <c r="M31" t="n">
-        <v>784.0864760050498</v>
+        <v>784.0864760050491</v>
       </c>
       <c r="N31" t="n">
-        <v>1039.637630187053</v>
+        <v>1039.637630187052</v>
       </c>
       <c r="O31" t="n">
         <v>1272.538984324676</v>
       </c>
       <c r="P31" t="n">
-        <v>1465.245689975049</v>
+        <v>1465.245689975048</v>
       </c>
       <c r="Q31" t="n">
         <v>1548.641718968753</v>
       </c>
       <c r="R31" t="n">
-        <v>1513.633275443385</v>
+        <v>1513.633275443384</v>
       </c>
       <c r="S31" t="n">
         <v>1407.964584587946</v>
       </c>
       <c r="T31" t="n">
-        <v>1279.73480183227</v>
+        <v>1279.734801832269</v>
       </c>
       <c r="U31" t="n">
         <v>1096.502273034137</v>
       </c>
       <c r="V31" t="n">
-        <v>939.7118587055536</v>
+        <v>939.7118587055531</v>
       </c>
       <c r="W31" t="n">
-        <v>757.5003473359462</v>
+        <v>757.5003473359458</v>
       </c>
       <c r="X31" t="n">
-        <v>630.1927733443155</v>
+        <v>630.192773344315</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.1025046495859</v>
+        <v>512.1025046495856</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>699.7960102815737</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.633630619481</v>
+        <v>1233.660936989633</v>
       </c>
       <c r="M32" t="n">
-        <v>1766.985437014245</v>
+        <v>1822.012743384397</v>
       </c>
       <c r="N32" t="n">
-        <v>2236.953231224467</v>
+        <v>2291.980537594619</v>
       </c>
       <c r="O32" t="n">
         <v>2733.422870431057</v>
@@ -6725,10 +6725,10 @@
         <v>3443.553853117569</v>
       </c>
       <c r="S32" t="n">
-        <v>3375.331303125196</v>
+        <v>3375.331303125197</v>
       </c>
       <c r="T32" t="n">
-        <v>3260.332107692437</v>
+        <v>3260.332107692438</v>
       </c>
       <c r="U32" t="n">
         <v>3112.554670866228</v>
@@ -6859,16 +6859,16 @@
         <v>131.2312878536304</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5352935280798</v>
+        <v>296.5352935280797</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3270223921035</v>
+        <v>536.3270223921033</v>
       </c>
       <c r="M34" t="n">
-        <v>795.3669617645799</v>
+        <v>795.3669617645796</v>
       </c>
       <c r="N34" t="n">
-        <v>1053.977096320073</v>
+        <v>1053.977096320072</v>
       </c>
       <c r="O34" t="n">
         <v>1215.528146790482</v>
@@ -6938,7 +6938,7 @@
         <v>169.6029711321571</v>
       </c>
       <c r="K35" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665063</v>
       </c>
       <c r="L35" t="n">
         <v>904.0001174013312</v>
@@ -7014,25 +7014,25 @@
         <v>54.01635899375342</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="K36" t="n">
-        <v>414.0928773007159</v>
+        <v>327.8779761550183</v>
       </c>
       <c r="L36" t="n">
-        <v>839.5770945564518</v>
+        <v>753.3621934107541</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.018721052609</v>
       </c>
       <c r="N36" t="n">
-        <v>1976.965160702101</v>
+        <v>1724.113999515822</v>
       </c>
       <c r="O36" t="n">
-        <v>1988.844128843815</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.258269825996</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.6069591228099</v>
+        <v>82.1881661289804</v>
       </c>
       <c r="C37" t="n">
-        <v>98.79490763901256</v>
+        <v>68.37611464518309</v>
       </c>
       <c r="D37" t="n">
-        <v>98.79490763901256</v>
+        <v>68.37611464518309</v>
       </c>
       <c r="E37" t="n">
-        <v>98.79490763901256</v>
+        <v>68.37611464518309</v>
       </c>
       <c r="F37" t="n">
-        <v>98.79490763901256</v>
+        <v>68.37611464518309</v>
       </c>
       <c r="G37" t="n">
-        <v>85.91412139057999</v>
+        <v>55.49532839675054</v>
       </c>
       <c r="H37" t="n">
         <v>54.01635899375342</v>
@@ -7096,7 +7096,7 @@
         <v>54.01635899375342</v>
       </c>
       <c r="K37" t="n">
-        <v>114.3849974949682</v>
+        <v>114.3849974949681</v>
       </c>
       <c r="L37" t="n">
         <v>249.2413591857572</v>
@@ -7105,40 +7105,40 @@
         <v>403.3459313849989</v>
       </c>
       <c r="N37" t="n">
-        <v>557.020698767257</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O37" t="n">
-        <v>688.0456661051354</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P37" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q37" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R37" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S37" t="n">
-        <v>725.0663220418539</v>
+        <v>725.0663220418537</v>
       </c>
       <c r="T37" t="n">
-        <v>648.6955672277066</v>
+        <v>618.2767742338772</v>
       </c>
       <c r="U37" t="n">
-        <v>517.3220663711031</v>
+        <v>486.9032733772736</v>
       </c>
       <c r="V37" t="n">
-        <v>412.3906799840481</v>
+        <v>381.9718869902186</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0381965559696</v>
+        <v>251.6194035621401</v>
       </c>
       <c r="X37" t="n">
-        <v>206.5896505058678</v>
+        <v>176.1708575120383</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.3584097526673</v>
+        <v>109.9396167588378</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.922431668986</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C38" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056317</v>
       </c>
       <c r="D38" t="n">
-        <v>982.7725443380621</v>
+        <v>982.772544338063</v>
       </c>
       <c r="E38" t="n">
-        <v>743.7907424986913</v>
+        <v>743.7907424986922</v>
       </c>
       <c r="F38" t="n">
-        <v>485.4434698633841</v>
+        <v>485.443469863385</v>
       </c>
       <c r="G38" t="n">
         <v>225.6673923846452</v>
@@ -7172,13 +7172,13 @@
         <v>54.01635899375342</v>
       </c>
       <c r="J38" t="n">
-        <v>169.6029711321568</v>
+        <v>169.6029711321571</v>
       </c>
       <c r="K38" t="n">
-        <v>475.070557866506</v>
+        <v>475.0705578665063</v>
       </c>
       <c r="L38" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M38" t="n">
         <v>1387.41655662286</v>
@@ -7199,25 +7199,25 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S38" t="n">
-        <v>2681.333337571028</v>
+        <v>2681.333337571029</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080014</v>
       </c>
       <c r="U38" t="n">
         <v>2516.03258106352</v>
       </c>
       <c r="V38" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013984</v>
       </c>
       <c r="W38" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926108</v>
       </c>
       <c r="X38" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132484</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>54.01635899375342</v>
       </c>
       <c r="J39" t="n">
-        <v>54.01635899375342</v>
+        <v>140.2312601394511</v>
       </c>
       <c r="K39" t="n">
-        <v>54.01635899375342</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L39" t="n">
-        <v>479.5005762494893</v>
+        <v>839.5770945564518</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.157103891344</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N39" t="n">
-        <v>1616.888642395139</v>
+        <v>1531.266848526715</v>
       </c>
       <c r="O39" t="n">
-        <v>2074.465922712239</v>
+        <v>1988.844128843815</v>
       </c>
       <c r="P39" t="n">
-        <v>2429.032912705313</v>
+        <v>2343.411118836889</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.258269825996</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.75137519663886</v>
+        <v>112.6069591228101</v>
       </c>
       <c r="C40" t="n">
-        <v>79.93932371284161</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="D40" t="n">
-        <v>79.93932371284161</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="E40" t="n">
-        <v>79.93932371284161</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="F40" t="n">
-        <v>79.93932371284161</v>
+        <v>98.79490763901285</v>
       </c>
       <c r="G40" t="n">
-        <v>67.05853746440911</v>
+        <v>85.91412139058033</v>
       </c>
       <c r="H40" t="n">
-        <v>65.57956806141206</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="I40" t="n">
-        <v>65.57956806141206</v>
+        <v>54.01635899375342</v>
       </c>
       <c r="J40" t="n">
         <v>54.01635899375342</v>
       </c>
       <c r="K40" t="n">
-        <v>114.3849974949682</v>
+        <v>114.3849974949681</v>
       </c>
       <c r="L40" t="n">
         <v>249.2413591857572</v>
@@ -7342,40 +7342,40 @@
         <v>403.3459313849989</v>
       </c>
       <c r="N40" t="n">
-        <v>557.020698767257</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O40" t="n">
-        <v>688.0456661051354</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P40" t="n">
-        <v>778.8759849557634</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q40" t="n">
-        <v>760.020401029592</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R40" t="n">
-        <v>760.020401029592</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S40" t="n">
-        <v>706.2107381156825</v>
+        <v>725.0663220418537</v>
       </c>
       <c r="T40" t="n">
-        <v>629.8399833015352</v>
+        <v>648.6955672277064</v>
       </c>
       <c r="U40" t="n">
-        <v>498.4664824449318</v>
+        <v>517.322066371103</v>
       </c>
       <c r="V40" t="n">
-        <v>393.5350960578768</v>
+        <v>412.3906799840481</v>
       </c>
       <c r="W40" t="n">
-        <v>263.1826126297984</v>
+        <v>282.0381965559696</v>
       </c>
       <c r="X40" t="n">
-        <v>187.7340665796967</v>
+        <v>206.5896505058679</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.5028258264962</v>
+        <v>140.3584097526675</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.922431668987</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C41" t="n">
-        <v>1199.792591056316</v>
+        <v>1199.792591056315</v>
       </c>
       <c r="D41" t="n">
-        <v>982.7725443380626</v>
+        <v>982.7725443380614</v>
       </c>
       <c r="E41" t="n">
-        <v>743.790742498692</v>
+        <v>743.7907424986909</v>
       </c>
       <c r="F41" t="n">
-        <v>485.4434698633848</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G41" t="n">
         <v>225.6673923846451</v>
       </c>
       <c r="H41" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I41" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J41" t="n">
         <v>169.6029711321571</v>
       </c>
       <c r="K41" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665061</v>
       </c>
       <c r="L41" t="n">
-        <v>904.0001174013312</v>
+        <v>904.000117401331</v>
       </c>
       <c r="M41" t="n">
         <v>1387.41655662286</v>
@@ -7439,22 +7439,22 @@
         <v>2681.333337571028</v>
       </c>
       <c r="T41" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U41" t="n">
-        <v>2516.03258106352</v>
+        <v>2516.032581063519</v>
       </c>
       <c r="V41" t="n">
-        <v>2334.857225013983</v>
+        <v>2334.857225013982</v>
       </c>
       <c r="W41" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926106</v>
       </c>
       <c r="X41" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502122</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132482</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I42" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J42" t="n">
         <v>140.2312601394511</v>
@@ -7497,7 +7497,7 @@
         <v>839.5770945564518</v>
       </c>
       <c r="M42" t="n">
-        <v>948.5353100229208</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N42" t="n">
         <v>1531.266848526715</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.18816612897996</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C43" t="n">
-        <v>68.37611464518281</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D43" t="n">
-        <v>68.37611464518281</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E43" t="n">
-        <v>68.37611464518281</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F43" t="n">
-        <v>68.37611464518281</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G43" t="n">
-        <v>55.49532839675039</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H43" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I43" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J43" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K43" t="n">
-        <v>114.3849974949682</v>
+        <v>114.3849974949681</v>
       </c>
       <c r="L43" t="n">
-        <v>249.2413591857572</v>
+        <v>249.2413591857571</v>
       </c>
       <c r="M43" t="n">
-        <v>403.3459313849989</v>
+        <v>403.3459313849988</v>
       </c>
       <c r="N43" t="n">
-        <v>557.020698767257</v>
+        <v>557.0206987672568</v>
       </c>
       <c r="O43" t="n">
-        <v>688.0456661051354</v>
+        <v>688.0456661051351</v>
       </c>
       <c r="P43" t="n">
-        <v>778.8759849557634</v>
+        <v>778.875984955763</v>
       </c>
       <c r="Q43" t="n">
-        <v>778.8759849557634</v>
+        <v>778.875984955763</v>
       </c>
       <c r="R43" t="n">
-        <v>778.8759849557634</v>
+        <v>778.875984955763</v>
       </c>
       <c r="S43" t="n">
-        <v>694.647529048023</v>
+        <v>725.0663220418536</v>
       </c>
       <c r="T43" t="n">
-        <v>618.2767742338758</v>
+        <v>648.6955672277064</v>
       </c>
       <c r="U43" t="n">
-        <v>486.9032733772725</v>
+        <v>517.322066371103</v>
       </c>
       <c r="V43" t="n">
-        <v>381.9718869902176</v>
+        <v>412.3906799840481</v>
       </c>
       <c r="W43" t="n">
-        <v>251.6194035621393</v>
+        <v>282.0381965559698</v>
       </c>
       <c r="X43" t="n">
-        <v>176.1708575120376</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.9396167588372</v>
+        <v>140.3584097526676</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>982.7725443380623</v>
       </c>
       <c r="E44" t="n">
-        <v>743.7907424986918</v>
+        <v>743.7907424986913</v>
       </c>
       <c r="F44" t="n">
-        <v>485.443469863385</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G44" t="n">
         <v>225.6673923846451</v>
       </c>
       <c r="H44" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I44" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J44" t="n">
-        <v>169.6029711321573</v>
+        <v>169.6029711321571</v>
       </c>
       <c r="K44" t="n">
-        <v>475.0705578665065</v>
+        <v>475.0705578665061</v>
       </c>
       <c r="L44" t="n">
-        <v>904.0001174013314</v>
+        <v>904.000117401331</v>
       </c>
       <c r="M44" t="n">
         <v>1387.41655662286</v>
       </c>
       <c r="N44" t="n">
-        <v>1857.384350833083</v>
+        <v>1857.384350833082</v>
       </c>
       <c r="O44" t="n">
         <v>2248.918622866438</v>
       </c>
       <c r="P44" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q44" t="n">
-        <v>2700.817949687672</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="R44" t="n">
         <v>2700.817949687671</v>
       </c>
       <c r="S44" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T44" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U44" t="n">
         <v>2516.03258106352</v>
@@ -7722,7 +7722,7 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I45" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J45" t="n">
         <v>140.2312601394511</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.18816612898014</v>
+        <v>112.6069591228102</v>
       </c>
       <c r="C46" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="D46" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="E46" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="F46" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="G46" t="n">
-        <v>55.49532839675045</v>
+        <v>85.91412139058053</v>
       </c>
       <c r="H46" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I46" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J46" t="n">
-        <v>54.01635899375342</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K46" t="n">
-        <v>114.3849974949682</v>
+        <v>114.3849974949681</v>
       </c>
       <c r="L46" t="n">
-        <v>249.2413591857572</v>
+        <v>249.2413591857571</v>
       </c>
       <c r="M46" t="n">
-        <v>403.3459313849989</v>
+        <v>403.3459313849988</v>
       </c>
       <c r="N46" t="n">
-        <v>557.020698767257</v>
+        <v>557.0206987672568</v>
       </c>
       <c r="O46" t="n">
-        <v>688.0456661051354</v>
+        <v>688.0456661051351</v>
       </c>
       <c r="P46" t="n">
-        <v>778.8759849557634</v>
+        <v>778.875984955763</v>
       </c>
       <c r="Q46" t="n">
-        <v>778.8759849557634</v>
+        <v>778.875984955763</v>
       </c>
       <c r="R46" t="n">
-        <v>778.8759849557634</v>
+        <v>778.875984955763</v>
       </c>
       <c r="S46" t="n">
-        <v>694.6475290480236</v>
+        <v>725.0663220418536</v>
       </c>
       <c r="T46" t="n">
-        <v>618.2767742338764</v>
+        <v>648.6955672277064</v>
       </c>
       <c r="U46" t="n">
-        <v>486.903273377273</v>
+        <v>517.322066371103</v>
       </c>
       <c r="V46" t="n">
-        <v>381.9718869902181</v>
+        <v>412.3906799840481</v>
       </c>
       <c r="W46" t="n">
-        <v>251.6194035621397</v>
+        <v>282.0381965559698</v>
       </c>
       <c r="X46" t="n">
-        <v>176.1708575120379</v>
+        <v>206.589650505868</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.9396167588375</v>
+        <v>140.3584097526676</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L8" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>199.099261177513</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>197.8585175523677</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,25 +8532,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>126.9443059417775</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>127.802395291465</v>
+        <v>127.3198519912487</v>
       </c>
       <c r="P9" t="n">
         <v>120.7971527044972</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>116.7662189439139</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
         <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>123.9563408722598</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
         <v>123.8469499702863</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>403.5218197195684</v>
+        <v>252.1164217727511</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.6040899110583</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>61.82069973107612</v>
+        <v>61.82069973107615</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236956</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.83258720950353</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>175.4853535299063</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179468</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.30537204740507</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229272</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>155.2162675463271</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179468</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229272</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>155.2162675463272</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179468</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,10 +9963,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179471</v>
       </c>
       <c r="O27" t="n">
-        <v>61.82069973107589</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.83258720950353</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>175.4853535299065</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179471</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.30537204740507</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>172.944771317947</v>
+        <v>172.9447713179471</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>454.8256320601737</v>
       </c>
       <c r="O36" t="n">
-        <v>61.82069973107566</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.83258720950353</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>67.17691199386243</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179468</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.6138135834489</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11145,10 +11145,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>155.2162675463272</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>172.9447713179468</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>325.0399780143668</v>
       </c>
       <c r="G11" t="n">
-        <v>326.454494809365</v>
+        <v>183.9558299497286</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.2298591197627</v>
+        <v>167.3252820663874</v>
       </c>
       <c r="V11" t="n">
-        <v>248.6397805944536</v>
+        <v>248.6397805944535</v>
       </c>
       <c r="W11" t="n">
-        <v>273.9398800724105</v>
+        <v>273.9398800724104</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.6367361013558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>66.57147347195034</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.51922332772979</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98614765591617</v>
+        <v>65.9861476559161</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.74035781437978</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.79357341598951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.59409953341387</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.5477443901831</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>107.9916250746375</v>
       </c>
       <c r="V13" t="n">
-        <v>42.50417048607812</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.9702386950135</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>293.1447203119561</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>284.1260243564841</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>326.454494809365</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.12017415851115</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>167.3252820663875</v>
+        <v>167.3252820663874</v>
       </c>
       <c r="V14" t="n">
-        <v>248.6397805944536</v>
+        <v>17.4507608270513</v>
       </c>
       <c r="W14" t="n">
-        <v>227.4469360055723</v>
+        <v>273.9398800724104</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>96.75011422897147</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.57147347195041</v>
+        <v>66.57147347195034</v>
       </c>
       <c r="E16" t="n">
-        <v>65.51922332772986</v>
+        <v>65.51922332772979</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>63.91648328087015</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>69.57628662133749</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.79357341598957</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.59409953341387</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.5477443901831</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>134.8451064510811</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1206097.245087011</v>
+        <v>1206097.245087012</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95734.57893841303</v>
+        <v>95734.57893841302</v>
       </c>
       <c r="C2" t="n">
-        <v>95734.57893841309</v>
+        <v>95734.57893841305</v>
       </c>
       <c r="D2" t="n">
-        <v>95953.0075617728</v>
+        <v>95953.00756177277</v>
       </c>
       <c r="E2" t="n">
-        <v>82741.13789005227</v>
+        <v>82741.13789005246</v>
       </c>
       <c r="F2" t="n">
-        <v>84362.13301652983</v>
+        <v>84362.13301652986</v>
       </c>
       <c r="G2" t="n">
-        <v>95953.0075617726</v>
+        <v>95953.00756177261</v>
       </c>
       <c r="H2" t="n">
-        <v>95953.00756177263</v>
+        <v>95953.00756177264</v>
       </c>
       <c r="I2" t="n">
         <v>95953.00756177261</v>
       </c>
       <c r="J2" t="n">
-        <v>95953.00756177249</v>
+        <v>95953.00756177244</v>
       </c>
       <c r="K2" t="n">
         <v>95953.00756177242</v>
       </c>
       <c r="L2" t="n">
-        <v>95953.00756177268</v>
+        <v>95953.0075617727</v>
       </c>
       <c r="M2" t="n">
         <v>95953.00756177264</v>
       </c>
       <c r="N2" t="n">
-        <v>95953.00756177261</v>
+        <v>95953.00756177265</v>
       </c>
       <c r="O2" t="n">
-        <v>95953.0075617726</v>
+        <v>95953.00756177265</v>
       </c>
       <c r="P2" t="n">
-        <v>95953.0075617726</v>
+        <v>95953.00756177263</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>357147.4969845472</v>
       </c>
       <c r="F3" t="n">
-        <v>12028.22113062404</v>
+        <v>12028.22113062401</v>
       </c>
       <c r="G3" t="n">
-        <v>55420.94248433023</v>
+        <v>55420.94248433017</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78611.30900564819</v>
+        <v>78611.30900564825</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57892.84581644313</v>
+        <v>57892.84581644307</v>
       </c>
       <c r="M3" t="n">
         <v>147153.2244248483</v>
       </c>
       <c r="N3" t="n">
-        <v>10281.9154871124</v>
+        <v>10281.91548711237</v>
       </c>
       <c r="O3" t="n">
-        <v>26903.41048516061</v>
+        <v>26903.41048516068</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>387212.3726853604</v>
       </c>
       <c r="E4" t="n">
-        <v>219407.5105365945</v>
+        <v>219407.5105365946</v>
       </c>
       <c r="F4" t="n">
         <v>223396.7363758595</v>
@@ -26439,13 +26439,13 @@
         <v>276131.512787101</v>
       </c>
       <c r="J4" t="n">
-        <v>277167.4584747851</v>
+        <v>277167.4584747852</v>
       </c>
       <c r="K4" t="n">
-        <v>277167.4584747851</v>
+        <v>277167.4584747852</v>
       </c>
       <c r="L4" t="n">
-        <v>277103.4908137626</v>
+        <v>277103.4908137628</v>
       </c>
       <c r="M4" t="n">
         <v>276131.5127871009</v>
@@ -26476,22 +26476,22 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>48456.4539315742</v>
+        <v>48456.45393157421</v>
       </c>
       <c r="F5" t="n">
         <v>51008.80814983691</v>
       </c>
       <c r="G5" t="n">
-        <v>56832.78716698087</v>
+        <v>56832.78716698085</v>
       </c>
       <c r="H5" t="n">
-        <v>56832.78716698087</v>
+        <v>56832.78716698086</v>
       </c>
       <c r="I5" t="n">
-        <v>56832.78716698087</v>
+        <v>56832.78716698085</v>
       </c>
       <c r="J5" t="n">
-        <v>64532.3648034646</v>
+        <v>64532.36480346459</v>
       </c>
       <c r="K5" t="n">
         <v>64532.36480346459</v>
@@ -26506,10 +26506,10 @@
         <v>56832.78716698085</v>
       </c>
       <c r="O5" t="n">
-        <v>56832.78716698087</v>
+        <v>56832.78716698085</v>
       </c>
       <c r="P5" t="n">
-        <v>56832.78716698086</v>
+        <v>56832.78716698085</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325888.6804441196</v>
+        <v>-325893.0490165869</v>
       </c>
       <c r="C6" t="n">
-        <v>-325888.6804441196</v>
+        <v>-325893.0490165868</v>
       </c>
       <c r="D6" t="n">
         <v>-329322.9338090714</v>
       </c>
       <c r="E6" t="n">
-        <v>-542270.3235626637</v>
+        <v>-542534.560956098</v>
       </c>
       <c r="F6" t="n">
-        <v>-202071.6326397906</v>
+        <v>-202303.4501306954</v>
       </c>
       <c r="G6" t="n">
         <v>-292432.2348766394</v>
@@ -26543,10 +26543,10 @@
         <v>-237011.2923923092</v>
       </c>
       <c r="J6" t="n">
-        <v>-324358.1247221255</v>
+        <v>-324358.1247221256</v>
       </c>
       <c r="K6" t="n">
-        <v>-245746.8157164773</v>
+        <v>-245746.8157164774</v>
       </c>
       <c r="L6" t="n">
         <v>-303109.3257652664</v>
@@ -26555,7 +26555,7 @@
         <v>-384164.5168171574</v>
       </c>
       <c r="N6" t="n">
-        <v>-247293.2078794216</v>
+        <v>-247293.2078794215</v>
       </c>
       <c r="O6" t="n">
         <v>-263914.7028774698</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="F2" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="G2" t="n">
         <v>154.2458788739773</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="F3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="G3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="H3" t="n">
         <v>129.0393367280672</v>
       </c>
       <c r="I3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="J3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="K3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="L3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="M3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="N3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="O3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="P3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
     </row>
     <row r="4">
@@ -26799,19 +26799,19 @@
         <v>633.2249772531233</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.2044874219177</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.2044874219177</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.2044874219177</v>
       </c>
       <c r="I4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.2044874219177</v>
       </c>
       <c r="J4" t="n">
-        <v>872.8314099597466</v>
+        <v>872.8314099597462</v>
       </c>
       <c r="K4" t="n">
         <v>872.8314099597462</v>
@@ -26826,10 +26826,10 @@
         <v>675.2044874219177</v>
       </c>
       <c r="O4" t="n">
-        <v>675.2044874219177</v>
+        <v>675.2044874219176</v>
       </c>
       <c r="P4" t="n">
-        <v>675.2044874219177</v>
+        <v>675.2044874219176</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.27617810541278</v>
+        <v>69.27617810541271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.62926310645068</v>
+        <v>33.62926310645082</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.36605727055391</v>
+        <v>72.36605727055384</v>
       </c>
       <c r="M2" t="n">
         <v>48.25055849697252</v>
@@ -26944,7 +26944,7 @@
         <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645076</v>
+        <v>33.62926310645085</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.0393367280672</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>621.2820305727694</v>
       </c>
       <c r="F4" t="n">
-        <v>41.9795101687946</v>
+        <v>41.97951016879449</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>197.6269225378287</v>
+        <v>197.6269225378285</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>435.5980547152948</v>
       </c>
       <c r="N4" t="n">
-        <v>41.9795101687946</v>
+        <v>41.97951016879449</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.27617810541278</v>
+        <v>69.27617810541271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645068</v>
+        <v>33.62926310645082</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>621.2820305727694</v>
       </c>
       <c r="N4" t="n">
-        <v>41.9795101687946</v>
+        <v>41.97951016879449</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>159.1460801229381</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>184.8470169628252</v>
       </c>
       <c r="T8" t="n">
-        <v>221.6056881531746</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27941,10 +27941,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>122.8275126335687</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>115.4982682965944</v>
+        <v>116.9218675408926</v>
       </c>
       <c r="H9" t="n">
         <v>86.99553219841505</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.7768683171821</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>155.9768631625826</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>139.598227560161</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>140.4365009884249</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>155.2876044654746</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28074,10 +28074,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>218.4205920275223</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.8718605392918</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="C11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="D11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="E11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="F11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="G11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="H11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="I11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="T11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="U11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="V11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="W11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="X11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="C13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="D13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="E13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="G13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="H13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="I13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="J13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="K13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="L13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="M13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="N13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="O13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="P13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="R13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="S13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="T13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="U13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="V13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="W13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="X13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="C14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="D14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="E14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="F14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="G14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="H14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="I14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="T14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="U14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="V14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="W14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="X14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="C16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="D16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="E16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="F16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="G16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="H16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="I16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="J16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="K16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="L16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="M16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="N16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="O16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="P16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="R16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="S16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="T16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="U16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="V16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="W16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="X16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.96970076856448</v>
+        <v>84.96970076856455</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.14590470143904</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S17" t="n">
         <v>154.2458788739773</v>
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>120.3743190324021</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28743,7 +28743,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J19" t="n">
-        <v>43.00520846662181</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.66702808690971</v>
+        <v>18.66702808690972</v>
       </c>
       <c r="R19" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S19" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100853</v>
       </c>
       <c r="T19" t="n">
         <v>154.2458788739773</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143905</v>
       </c>
       <c r="S20" t="n">
         <v>154.2458788739773</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100853</v>
       </c>
       <c r="H22" t="n">
         <v>154.2458788739773</v>
@@ -28980,7 +28980,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J22" t="n">
-        <v>43.00520846662182</v>
+        <v>43.00520846662181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S22" t="n">
-        <v>124.1312738100851</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="T22" t="n">
         <v>154.2458788739773</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S23" t="n">
         <v>154.2458788739773</v>
@@ -29211,7 +29211,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="H25" t="n">
-        <v>124.131273810085</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="I25" t="n">
         <v>135.7632741845541</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.66702808690971</v>
+        <v>18.66702808690972</v>
       </c>
       <c r="R25" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S25" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100853</v>
       </c>
       <c r="T25" t="n">
         <v>154.2458788739773</v>
@@ -29299,7 +29299,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="K26" t="n">
-        <v>102.9054412118635</v>
+        <v>16.42513899470066</v>
       </c>
       <c r="L26" t="n">
         <v>102.9054412118635</v>
@@ -29308,7 +29308,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="N26" t="n">
-        <v>16.42513899470237</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="O26" t="n">
         <v>102.9054412118635</v>
@@ -29463,7 +29463,7 @@
         <v>102.9054412118635</v>
       </c>
       <c r="M28" t="n">
-        <v>102.9054412118655</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="N28" t="n">
         <v>102.9054412118635</v>
@@ -29545,10 +29545,10 @@
         <v>102.9054412118635</v>
       </c>
       <c r="N29" t="n">
+        <v>16.4251389947006</v>
+      </c>
+      <c r="O29" t="n">
         <v>102.9054412118635</v>
-      </c>
-      <c r="O29" t="n">
-        <v>16.42513899469969</v>
       </c>
       <c r="P29" t="n">
         <v>102.9054412118635</v>
@@ -29776,7 +29776,7 @@
         <v>105.9953203770047</v>
       </c>
       <c r="L32" t="n">
-        <v>50.41218262937639</v>
+        <v>105.9953203770047</v>
       </c>
       <c r="M32" t="n">
         <v>105.9953203770047</v>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>105.9953203770047</v>
+        <v>50.41218262937616</v>
       </c>
       <c r="P32" t="n">
         <v>105.9953203770047</v>
@@ -29943,7 +29943,7 @@
         <v>105.9953203770047</v>
       </c>
       <c r="O34" t="n">
-        <v>30.83442740659694</v>
+        <v>30.83442740659746</v>
       </c>
       <c r="P34" t="n">
         <v>105.9953203770047</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S35" t="n">
         <v>154.2458788739772</v>
@@ -30159,7 +30159,7 @@
         <v>154.2458788739772</v>
       </c>
       <c r="H37" t="n">
-        <v>124.131273810086</v>
+        <v>154.2458788739772</v>
       </c>
       <c r="I37" t="n">
         <v>135.7632741845541</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.66702808690971</v>
+        <v>18.66702808690972</v>
       </c>
       <c r="R37" t="n">
         <v>137.5638003019783</v>
@@ -30195,7 +30195,7 @@
         <v>154.2458788739772</v>
       </c>
       <c r="T37" t="n">
-        <v>154.2458788739772</v>
+        <v>124.1312738100862</v>
       </c>
       <c r="U37" t="n">
         <v>154.2458788739772</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S38" t="n">
         <v>154.2458788739772</v>
@@ -30396,13 +30396,13 @@
         <v>154.2458788739772</v>
       </c>
       <c r="H40" t="n">
-        <v>154.2458788739772</v>
+        <v>124.1312738100857</v>
       </c>
       <c r="I40" t="n">
         <v>135.7632741845541</v>
       </c>
       <c r="J40" t="n">
-        <v>31.55763148963976</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.66702808690972</v>
       </c>
       <c r="R40" t="n">
         <v>137.5638003019783</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.14590470143906</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S41" t="n">
         <v>154.2458788739773</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100855</v>
       </c>
       <c r="C43" t="n">
         <v>154.2458788739773</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.66702808690971</v>
+        <v>18.66702808690972</v>
       </c>
       <c r="R43" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S43" t="n">
-        <v>124.1312738100846</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="T43" t="n">
         <v>154.2458788739773</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.14590470143816</v>
+        <v>57.14590470143907</v>
       </c>
       <c r="S44" t="n">
         <v>154.2458788739773</v>
@@ -30870,7 +30870,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="H46" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100855</v>
       </c>
       <c r="I46" t="n">
         <v>135.7632741845541</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.66702808690971</v>
+        <v>18.66702808690972</v>
       </c>
       <c r="R46" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S46" t="n">
-        <v>124.1312738100851</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="T46" t="n">
         <v>154.2458788739773</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H11" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I11" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K11" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L11" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M11" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N11" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O11" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P11" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R11" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S11" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T11" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H12" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I12" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J12" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K12" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L12" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M12" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N12" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O12" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P12" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R12" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S12" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T12" t="n">
         <v>1.118746702387676</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H13" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I13" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J13" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K13" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L13" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M13" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N13" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O13" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P13" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R13" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S13" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H14" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I14" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K14" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L14" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M14" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N14" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O14" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P14" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R14" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S14" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T14" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H15" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I15" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J15" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K15" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L15" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M15" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N15" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O15" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P15" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R15" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S15" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T15" t="n">
         <v>1.118746702387676</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H16" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I16" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J16" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K16" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L16" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M16" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N16" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O16" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P16" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R16" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S16" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5187511024243904</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H17" t="n">
-        <v>5.31265972770379</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I17" t="n">
-        <v>19.99915187621633</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02835137939215</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K17" t="n">
-        <v>65.9870855450166</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L17" t="n">
-        <v>81.86281459583707</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M17" t="n">
-        <v>91.08815451357681</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N17" t="n">
-        <v>92.56205608334011</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O17" t="n">
-        <v>87.40372480860758</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P17" t="n">
-        <v>74.59705696750542</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.01928311193193</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R17" t="n">
-        <v>32.58599893766614</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S17" t="n">
-        <v>11.82104074649581</v>
+        <v>11.8210407464958</v>
       </c>
       <c r="T17" t="n">
-        <v>2.27083295086277</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04150008819395123</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2775563091886729</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H18" t="n">
-        <v>2.680609617690604</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I18" t="n">
-        <v>9.556215031276677</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J18" t="n">
-        <v>26.22298445716317</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K18" t="n">
-        <v>44.81925717280426</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L18" t="n">
-        <v>60.26502230870724</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M18" t="n">
-        <v>70.32643851679663</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N18" t="n">
-        <v>72.18777008148734</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O18" t="n">
-        <v>66.03770659893831</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P18" t="n">
-        <v>53.00108153270369</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.42981939748744</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R18" t="n">
-        <v>17.2328382143634</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S18" t="n">
-        <v>5.155486707956267</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T18" t="n">
-        <v>1.118746702387677</v>
+        <v>1.118746702387676</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0182602834992548</v>
+        <v>0.01826028349925479</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.232693885903072</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H19" t="n">
-        <v>2.068860185574587</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I19" t="n">
-        <v>6.997739768794204</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J19" t="n">
-        <v>16.45145773334719</v>
+        <v>16.45145773334718</v>
       </c>
       <c r="K19" t="n">
-        <v>27.03479874401145</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L19" t="n">
-        <v>34.59523463689855</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M19" t="n">
-        <v>36.47582431478791</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N19" t="n">
-        <v>35.60851074005831</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O19" t="n">
-        <v>32.89022307291786</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P19" t="n">
-        <v>28.14326780049517</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.48493984593815</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R19" t="n">
-        <v>10.46276326978722</v>
+        <v>10.46276326978721</v>
       </c>
       <c r="S19" t="n">
-        <v>4.055219811601717</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9942375124949437</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243903</v>
       </c>
       <c r="H20" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703789</v>
       </c>
       <c r="I20" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621633</v>
       </c>
       <c r="J20" t="n">
         <v>44.02835137939213</v>
       </c>
       <c r="K20" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501658</v>
       </c>
       <c r="L20" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583704</v>
       </c>
       <c r="M20" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357678</v>
       </c>
       <c r="N20" t="n">
-        <v>92.56205608334008</v>
+        <v>92.5620560833401</v>
       </c>
       <c r="O20" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860756</v>
       </c>
       <c r="P20" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750541</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193192</v>
       </c>
       <c r="R20" t="n">
         <v>32.58599893766613</v>
       </c>
       <c r="S20" t="n">
-        <v>11.8210407464958</v>
+        <v>11.82104074649581</v>
       </c>
       <c r="T20" t="n">
-        <v>2.270832950862769</v>
+        <v>2.27083295086277</v>
       </c>
       <c r="U20" t="n">
         <v>0.04150008819395121</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886728</v>
       </c>
       <c r="H21" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690604</v>
       </c>
       <c r="I21" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276675</v>
       </c>
       <c r="J21" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716317</v>
       </c>
       <c r="K21" t="n">
         <v>44.81925717280424</v>
       </c>
       <c r="L21" t="n">
-        <v>60.26502230870722</v>
+        <v>60.26502230870723</v>
       </c>
       <c r="M21" t="n">
-        <v>70.32643851679659</v>
+        <v>70.3264385167966</v>
       </c>
       <c r="N21" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148733</v>
       </c>
       <c r="O21" t="n">
-        <v>66.03770659893829</v>
+        <v>66.0377065989383</v>
       </c>
       <c r="P21" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270368</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748744</v>
       </c>
       <c r="R21" t="n">
         <v>17.23283821436339</v>
       </c>
       <c r="S21" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956266</v>
       </c>
       <c r="T21" t="n">
         <v>1.118746702387676</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01826028349925479</v>
+        <v>0.0182602834992548</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>0.2326938859030719</v>
       </c>
       <c r="H22" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574587</v>
       </c>
       <c r="I22" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794202</v>
       </c>
       <c r="J22" t="n">
-        <v>16.45145773334718</v>
+        <v>16.45145773334719</v>
       </c>
       <c r="K22" t="n">
         <v>27.03479874401144</v>
       </c>
       <c r="L22" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689854</v>
       </c>
       <c r="M22" t="n">
-        <v>36.47582431478789</v>
+        <v>36.4758243147879</v>
       </c>
       <c r="N22" t="n">
-        <v>35.60851074005829</v>
+        <v>35.6085107400583</v>
       </c>
       <c r="O22" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291786</v>
       </c>
       <c r="P22" t="n">
         <v>28.14326780049516</v>
@@ -32655,10 +32655,10 @@
         <v>10.46276326978721</v>
       </c>
       <c r="S22" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601716</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949435</v>
       </c>
       <c r="U22" t="n">
         <v>0.01269239377653121</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H23" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I23" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K23" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L23" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M23" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N23" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O23" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P23" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R23" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S23" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T23" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H24" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I24" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J24" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K24" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L24" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M24" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N24" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O24" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P24" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R24" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S24" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T24" t="n">
         <v>1.118746702387676</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H25" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I25" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J25" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K25" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L25" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M25" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N25" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O25" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P25" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R25" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S25" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H26" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I26" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J26" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K26" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L26" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M26" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N26" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O26" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P26" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R26" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S26" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T26" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H27" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I27" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J27" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K27" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L27" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M27" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N27" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O27" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P27" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R27" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S27" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T27" t="n">
         <v>1.118746702387676</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H28" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I28" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J28" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K28" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L28" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M28" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N28" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O28" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P28" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R28" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S28" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H29" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I29" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J29" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K29" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L29" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M29" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N29" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O29" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P29" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R29" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S29" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T29" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H30" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I30" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J30" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K30" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L30" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M30" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N30" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O30" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P30" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R30" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S30" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T30" t="n">
         <v>1.118746702387676</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H31" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I31" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J31" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K31" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L31" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M31" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N31" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O31" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P31" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R31" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S31" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H32" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I32" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J32" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K32" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L32" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M32" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N32" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O32" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P32" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R32" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S32" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T32" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H33" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I33" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J33" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K33" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L33" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M33" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N33" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O33" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P33" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R33" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S33" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T33" t="n">
         <v>1.118746702387676</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H34" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I34" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J34" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K34" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L34" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M34" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N34" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O34" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P34" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R34" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S34" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H35" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I35" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J35" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K35" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L35" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M35" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N35" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O35" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P35" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R35" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S35" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T35" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H36" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I36" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J36" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K36" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L36" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M36" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N36" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O36" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P36" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R36" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S36" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T36" t="n">
         <v>1.118746702387676</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H37" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I37" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J37" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K37" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L37" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M37" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N37" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O37" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P37" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R37" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S37" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H38" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I38" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J38" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K38" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L38" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M38" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N38" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O38" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P38" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R38" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S38" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T38" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H39" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I39" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J39" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K39" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L39" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M39" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N39" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O39" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P39" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R39" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S39" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T39" t="n">
         <v>1.118746702387676</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H40" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I40" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J40" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K40" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L40" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M40" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N40" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O40" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P40" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R40" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S40" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H41" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I41" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K41" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L41" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M41" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N41" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O41" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P41" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R41" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S41" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T41" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H42" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I42" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J42" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K42" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L42" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M42" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N42" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O42" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P42" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R42" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S42" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T42" t="n">
         <v>1.118746702387676</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H43" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I43" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J43" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K43" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L43" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M43" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N43" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O43" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P43" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R43" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S43" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5187511024243902</v>
+        <v>0.5187511024243899</v>
       </c>
       <c r="H44" t="n">
-        <v>5.312659727703787</v>
+        <v>5.312659727703785</v>
       </c>
       <c r="I44" t="n">
-        <v>19.99915187621632</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02835137939213</v>
+        <v>44.02835137939211</v>
       </c>
       <c r="K44" t="n">
-        <v>65.98708554501657</v>
+        <v>65.98708554501654</v>
       </c>
       <c r="L44" t="n">
-        <v>81.86281459583702</v>
+        <v>81.86281459583699</v>
       </c>
       <c r="M44" t="n">
-        <v>91.08815451357677</v>
+        <v>91.08815451357673</v>
       </c>
       <c r="N44" t="n">
-        <v>92.56205608334008</v>
+        <v>92.56205608334004</v>
       </c>
       <c r="O44" t="n">
-        <v>87.40372480860754</v>
+        <v>87.40372480860751</v>
       </c>
       <c r="P44" t="n">
-        <v>74.5970569675054</v>
+        <v>74.59705696750537</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.01928311193191</v>
+        <v>56.01928311193188</v>
       </c>
       <c r="R44" t="n">
-        <v>32.58599893766613</v>
+        <v>32.58599893766611</v>
       </c>
       <c r="S44" t="n">
         <v>11.8210407464958</v>
       </c>
       <c r="T44" t="n">
-        <v>2.270832950862769</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04150008819395121</v>
+        <v>0.04150008819395119</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2775563091886727</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H45" t="n">
-        <v>2.680609617690603</v>
+        <v>2.680609617690602</v>
       </c>
       <c r="I45" t="n">
-        <v>9.556215031276674</v>
+        <v>9.556215031276668</v>
       </c>
       <c r="J45" t="n">
-        <v>26.22298445716316</v>
+        <v>26.22298445716315</v>
       </c>
       <c r="K45" t="n">
-        <v>44.81925717280424</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L45" t="n">
-        <v>60.26502230870722</v>
+        <v>60.2650223087072</v>
       </c>
       <c r="M45" t="n">
-        <v>70.32643851679659</v>
+        <v>70.32643851679656</v>
       </c>
       <c r="N45" t="n">
-        <v>72.18777008148732</v>
+        <v>72.18777008148727</v>
       </c>
       <c r="O45" t="n">
-        <v>66.03770659893829</v>
+        <v>66.03770659893826</v>
       </c>
       <c r="P45" t="n">
-        <v>53.00108153270367</v>
+        <v>53.00108153270364</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.42981939748742</v>
+        <v>35.42981939748741</v>
       </c>
       <c r="R45" t="n">
-        <v>17.23283821436339</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S45" t="n">
-        <v>5.155486707956265</v>
+        <v>5.155486707956262</v>
       </c>
       <c r="T45" t="n">
         <v>1.118746702387676</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2326938859030719</v>
+        <v>0.2326938859030718</v>
       </c>
       <c r="H46" t="n">
-        <v>2.068860185574586</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I46" t="n">
-        <v>6.997739768794201</v>
+        <v>6.997739768794197</v>
       </c>
       <c r="J46" t="n">
         <v>16.45145773334718</v>
       </c>
       <c r="K46" t="n">
-        <v>27.03479874401144</v>
+        <v>27.03479874401143</v>
       </c>
       <c r="L46" t="n">
-        <v>34.59523463689853</v>
+        <v>34.59523463689852</v>
       </c>
       <c r="M46" t="n">
-        <v>36.47582431478789</v>
+        <v>36.47582431478788</v>
       </c>
       <c r="N46" t="n">
-        <v>35.60851074005829</v>
+        <v>35.60851074005827</v>
       </c>
       <c r="O46" t="n">
-        <v>32.89022307291785</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P46" t="n">
-        <v>28.14326780049516</v>
+        <v>28.14326780049515</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.48493984593814</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R46" t="n">
         <v>10.46276326978721</v>
       </c>
       <c r="S46" t="n">
-        <v>4.055219811601715</v>
+        <v>4.055219811601713</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9942375124949433</v>
+        <v>0.9942375124949429</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01269239377653121</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="P9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
         <v>11.94294668035388</v>
@@ -35413,10 +35413,10 @@
         <v>308.553117913484</v>
       </c>
       <c r="L11" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M11" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N11" t="n">
         <v>474.7149436466893</v>
@@ -35425,10 +35425,10 @@
         <v>395.489163670056</v>
       </c>
       <c r="P11" t="n">
-        <v>290.2420676359174</v>
+        <v>138.8366696890999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.08575873302796</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K12" t="n">
         <v>276.6278961224897</v>
@@ -35507,7 +35507,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.96449230194266</v>
+        <v>41.96449230194273</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9481234970642</v>
+        <v>145.9481234970643</v>
       </c>
       <c r="L13" t="n">
         <v>221.1882479309777</v>
       </c>
       <c r="M13" t="n">
-        <v>240.6308848082026</v>
+        <v>240.6308848082027</v>
       </c>
       <c r="N13" t="n">
-        <v>240.1967385284211</v>
+        <v>240.1967385284212</v>
       </c>
       <c r="O13" t="n">
         <v>217.3181526250073</v>
       </c>
       <c r="P13" t="n">
-        <v>176.7174975873806</v>
+        <v>176.7174975873807</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.30267268165477</v>
+        <v>66.30267268165483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.7541536751554</v>
+        <v>116.7541536751551</v>
       </c>
       <c r="K14" t="n">
         <v>308.553117913484</v>
       </c>
       <c r="L14" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M14" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N14" t="n">
         <v>474.7149436466893</v>
@@ -35665,7 +35665,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K15" t="n">
-        <v>108.3084415360439</v>
+        <v>276.6278961224897</v>
       </c>
       <c r="L15" t="n">
         <v>429.7820376320564</v>
@@ -35735,7 +35735,7 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N15" t="n">
-        <v>588.6177156603985</v>
+        <v>138.4174003317258</v>
       </c>
       <c r="O15" t="n">
         <v>462.1992730475755</v>
@@ -35744,7 +35744,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.96449230194266</v>
+        <v>41.96449230194273</v>
       </c>
       <c r="K16" t="n">
-        <v>145.9481234970642</v>
+        <v>145.9481234970643</v>
       </c>
       <c r="L16" t="n">
         <v>221.1882479309777</v>
       </c>
       <c r="M16" t="n">
-        <v>240.6308848082026</v>
+        <v>240.6308848082027</v>
       </c>
       <c r="N16" t="n">
-        <v>240.1967385284211</v>
+        <v>240.1967385284212</v>
       </c>
       <c r="O16" t="n">
         <v>217.3181526250073</v>
       </c>
       <c r="P16" t="n">
-        <v>176.7174975873806</v>
+        <v>176.7174975873807</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.30267268165477</v>
+        <v>66.30267268165483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>308.553117913484</v>
       </c>
       <c r="L17" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M17" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N17" t="n">
         <v>474.7149436466893</v>
@@ -35899,10 +35899,10 @@
         <v>395.489163670056</v>
       </c>
       <c r="P17" t="n">
-        <v>305.0585685392763</v>
+        <v>305.0585685392761</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.08575873302797</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K18" t="n">
-        <v>276.6278961224898</v>
+        <v>276.6278961224897</v>
       </c>
       <c r="L18" t="n">
         <v>429.7820376320564</v>
       </c>
       <c r="M18" t="n">
-        <v>110.0588035014839</v>
+        <v>560.2591188301566</v>
       </c>
       <c r="N18" t="n">
-        <v>588.6177156603985</v>
+        <v>138.4174003317258</v>
       </c>
       <c r="O18" t="n">
-        <v>462.1992730475756</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P18" t="n">
         <v>358.1484747404787</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.97842272849975</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L19" t="n">
         <v>136.2185471624132</v>
@@ -36051,13 +36051,13 @@
         <v>155.6611840396381</v>
       </c>
       <c r="N19" t="n">
-        <v>155.2270377598567</v>
+        <v>155.2270377598566</v>
       </c>
       <c r="O19" t="n">
         <v>132.3484518564428</v>
       </c>
       <c r="P19" t="n">
-        <v>91.74779681881617</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>433.262181348308</v>
       </c>
       <c r="M20" t="n">
-        <v>488.2994335570999</v>
+        <v>488.2994335571</v>
       </c>
       <c r="N20" t="n">
         <v>474.7149436466893</v>
@@ -36200,19 +36200,19 @@
         <v>87.08575873302796</v>
       </c>
       <c r="K21" t="n">
-        <v>276.6278961224897</v>
+        <v>276.6278961224898</v>
       </c>
       <c r="L21" t="n">
         <v>429.7820376320564</v>
       </c>
       <c r="M21" t="n">
-        <v>560.2591188301566</v>
+        <v>560.2591188301567</v>
       </c>
       <c r="N21" t="n">
         <v>138.4174003317258</v>
       </c>
       <c r="O21" t="n">
-        <v>462.1992730475755</v>
+        <v>462.1992730475756</v>
       </c>
       <c r="P21" t="n">
         <v>358.1484747404787</v>
@@ -36294,7 +36294,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P22" t="n">
-        <v>91.74779681881616</v>
+        <v>91.74779681881617</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>308.553117913484</v>
       </c>
       <c r="L23" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M23" t="n">
         <v>488.2994335570999</v>
@@ -36373,10 +36373,10 @@
         <v>395.489163670056</v>
       </c>
       <c r="P23" t="n">
-        <v>305.0585685392763</v>
+        <v>305.0585685392761</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.08575873302796</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K24" t="n">
         <v>276.6278961224897</v>
@@ -36443,10 +36443,10 @@
         <v>429.7820376320564</v>
       </c>
       <c r="M24" t="n">
-        <v>110.0588035014839</v>
+        <v>560.2591188301566</v>
       </c>
       <c r="N24" t="n">
-        <v>588.6177156603985</v>
+        <v>138.4174003317258</v>
       </c>
       <c r="O24" t="n">
         <v>462.1992730475755</v>
@@ -36455,7 +36455,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.97842272849974</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L25" t="n">
         <v>136.2185471624132</v>
@@ -36531,7 +36531,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P25" t="n">
-        <v>91.74779681881616</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.6595948870189</v>
+        <v>219.659594887019</v>
       </c>
       <c r="K26" t="n">
-        <v>411.4585591253474</v>
+        <v>324.9782569081846</v>
       </c>
       <c r="L26" t="n">
-        <v>536.1676225601714</v>
+        <v>536.1676225601715</v>
       </c>
       <c r="M26" t="n">
         <v>591.2048747689635</v>
       </c>
       <c r="N26" t="n">
-        <v>491.1400826413917</v>
+        <v>577.6203848585528</v>
       </c>
       <c r="O26" t="n">
         <v>498.3946048819195</v>
@@ -36613,10 +36613,10 @@
         <v>407.9640097511398</v>
       </c>
       <c r="Q26" t="n">
-        <v>254.3108391586812</v>
+        <v>254.3108391586813</v>
       </c>
       <c r="R26" t="n">
-        <v>45.7595365104244</v>
+        <v>45.75953651042446</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.08575873302796</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K27" t="n">
         <v>276.6278961224897</v>
@@ -36683,16 +36683,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N27" t="n">
-        <v>588.6177156603985</v>
+        <v>138.417400331726</v>
       </c>
       <c r="O27" t="n">
-        <v>11.99895771890307</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P27" t="n">
         <v>358.1484747404787</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.90023274524165</v>
+        <v>59.90023274524171</v>
       </c>
       <c r="K28" t="n">
-        <v>163.8838639403632</v>
+        <v>163.8838639403633</v>
       </c>
       <c r="L28" t="n">
-        <v>239.1239883742766</v>
+        <v>239.1239883742767</v>
       </c>
       <c r="M28" t="n">
-        <v>258.5666252515036</v>
+        <v>258.5666252515016</v>
       </c>
       <c r="N28" t="n">
-        <v>258.1324789717201</v>
+        <v>258.1324789717202</v>
       </c>
       <c r="O28" t="n">
-        <v>235.2538930683062</v>
+        <v>235.2538930683063</v>
       </c>
       <c r="P28" t="n">
-        <v>194.6532380306796</v>
+        <v>194.6532380306797</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.23841312495375</v>
+        <v>84.23841312495379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>591.2048747689635</v>
       </c>
       <c r="N29" t="n">
-        <v>577.6203848585528</v>
+        <v>491.1400826413899</v>
       </c>
       <c r="O29" t="n">
-        <v>411.9143026647557</v>
+        <v>498.3946048819195</v>
       </c>
       <c r="P29" t="n">
-        <v>407.9640097511399</v>
+        <v>407.9640097511398</v>
       </c>
       <c r="Q29" t="n">
         <v>254.3108391586813</v>
       </c>
       <c r="R29" t="n">
-        <v>45.75953651042447</v>
+        <v>45.75953651042446</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K30" t="n">
-        <v>108.3084415360441</v>
+        <v>276.6278961224897</v>
       </c>
       <c r="L30" t="n">
         <v>429.7820376320564</v>
@@ -36920,7 +36920,7 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N30" t="n">
-        <v>588.6177156603985</v>
+        <v>138.417400331726</v>
       </c>
       <c r="O30" t="n">
         <v>462.1992730475755</v>
@@ -36929,7 +36929,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.90023274524172</v>
+        <v>59.90023274524171</v>
       </c>
       <c r="K31" t="n">
         <v>163.8838639403633</v>
@@ -37008,7 +37008,7 @@
         <v>194.6532380306797</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.23841312495382</v>
+        <v>84.23841312495381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>414.5484382904887</v>
       </c>
       <c r="L32" t="n">
-        <v>483.6743639776844</v>
+        <v>539.2575017253125</v>
       </c>
       <c r="M32" t="n">
-        <v>594.2947539341046</v>
+        <v>594.2947539341045</v>
       </c>
       <c r="N32" t="n">
         <v>474.7149436466893</v>
       </c>
       <c r="O32" t="n">
-        <v>501.4844840470606</v>
+        <v>445.9013462994321</v>
       </c>
       <c r="P32" t="n">
-        <v>411.053888916281</v>
+        <v>411.0538889162809</v>
       </c>
       <c r="Q32" t="n">
         <v>257.4007183238224</v>
       </c>
       <c r="R32" t="n">
-        <v>48.8494156755656</v>
+        <v>48.84941567556559</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.08575873302796</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K33" t="n">
         <v>276.6278961224897</v>
@@ -37166,7 +37166,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>166.9737431055044</v>
       </c>
       <c r="L34" t="n">
-        <v>242.2138675394179</v>
+        <v>242.2138675394178</v>
       </c>
       <c r="M34" t="n">
         <v>261.6565044166427</v>
@@ -37239,13 +37239,13 @@
         <v>261.2223581368613</v>
       </c>
       <c r="O34" t="n">
-        <v>163.1828792630397</v>
+        <v>163.1828792630402</v>
       </c>
       <c r="P34" t="n">
         <v>197.7431171958208</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.32829229009495</v>
+        <v>87.32829229009494</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,10 +37309,10 @@
         <v>308.553117913484</v>
       </c>
       <c r="L35" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M35" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N35" t="n">
         <v>474.7149436466893</v>
@@ -37324,7 +37324,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.08575873302796</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>276.6278961224897</v>
@@ -37394,16 +37394,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N36" t="n">
-        <v>588.6177156603985</v>
+        <v>420.2982610739527</v>
       </c>
       <c r="O36" t="n">
-        <v>11.99895771890284</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P36" t="n">
         <v>358.1484747404787</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.7951020091988</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>60.97842272849974</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L37" t="n">
         <v>136.2185471624132</v>
@@ -37479,7 +37479,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P37" t="n">
-        <v>91.74779681881616</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.754153675155</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K38" t="n">
         <v>308.553117913484</v>
       </c>
       <c r="L38" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M38" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N38" t="n">
         <v>474.7149436466893</v>
@@ -37561,7 +37561,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>276.6278961224897</v>
       </c>
       <c r="L39" t="n">
         <v>429.7820376320564</v>
@@ -37631,7 +37631,7 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N39" t="n">
-        <v>588.6177156603985</v>
+        <v>138.4174003317258</v>
       </c>
       <c r="O39" t="n">
         <v>462.1992730475755</v>
@@ -37640,7 +37640,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q39" t="n">
-        <v>108.3084415360438</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>60.97842272849974</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L40" t="n">
         <v>136.2185471624132</v>
@@ -37716,7 +37716,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P40" t="n">
-        <v>91.74779681881616</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>308.553117913484</v>
       </c>
       <c r="L41" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M41" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N41" t="n">
         <v>474.7149436466893</v>
@@ -37798,7 +37798,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.08575873302796</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K42" t="n">
         <v>276.6278961224897</v>
@@ -37865,10 +37865,10 @@
         <v>429.7820376320564</v>
       </c>
       <c r="M42" t="n">
-        <v>110.0588035014839</v>
+        <v>560.2591188301566</v>
       </c>
       <c r="N42" t="n">
-        <v>588.6177156603985</v>
+        <v>138.4174003317258</v>
       </c>
       <c r="O42" t="n">
         <v>462.1992730475755</v>
@@ -37877,7 +37877,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.97842272849974</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L43" t="n">
         <v>136.2185471624132</v>
@@ -37953,7 +37953,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P43" t="n">
-        <v>91.74779681881616</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>308.553117913484</v>
       </c>
       <c r="L44" t="n">
-        <v>433.262181348308</v>
+        <v>433.2621813483079</v>
       </c>
       <c r="M44" t="n">
-        <v>488.2994335571</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N44" t="n">
         <v>474.7149436466893</v>
@@ -38035,7 +38035,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.4053979468178</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.08575873302796</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K45" t="n">
         <v>276.6278961224897</v>
@@ -38114,7 +38114,7 @@
         <v>358.1484747404787</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.7951020091988</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.97842272849974</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L46" t="n">
         <v>136.2185471624132</v>
@@ -38190,7 +38190,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P46" t="n">
-        <v>91.74779681881616</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
